--- a/Phase 2-Team Planning_W23_.xlsx
+++ b/Phase 2-Team Planning_W23_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klick\Desktop\Khaled\University\University_of_Ottawa\4th_year\Winter-2024\CSI4142\project-physical-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C238805-79DE-4B8A-8EC5-75A53528F60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7E4CBB-0670-40E7-8C11-1B80754365B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{BC7B5491-6718-42D3-AD60-469765C6A1D2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Deliverable checklist</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Kareem/Khaled</t>
-  </si>
-  <si>
-    <t>Kareem/Diego</t>
   </si>
   <si>
     <t>Diego</t>
@@ -245,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -255,9 +255,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,7 +574,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,16 +596,16 @@
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -617,24 +614,24 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -643,10 +640,10 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D8" s="5">
         <v>45378</v>
       </c>
       <c r="E8" s="4">
@@ -664,10 +661,10 @@
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D9" s="5">
         <v>45378</v>
       </c>
       <c r="E9" s="4">
@@ -685,10 +682,10 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D10" s="5">
         <v>45378</v>
       </c>
       <c r="E10" s="4">
@@ -704,12 +701,12 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D11" s="9">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D11" s="5">
         <v>45378</v>
       </c>
       <c r="E11" s="4">
@@ -727,10 +724,10 @@
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D12" s="5">
         <v>45378</v>
       </c>
       <c r="E12" s="4">
@@ -748,10 +745,10 @@
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D13" s="5">
         <v>45378</v>
       </c>
       <c r="E13" s="4">
@@ -769,10 +766,10 @@
       <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D14" s="5">
         <v>45378</v>
       </c>
       <c r="E14" s="4">
@@ -790,10 +787,10 @@
       <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="C15" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D15" s="5">
         <v>45378</v>
       </c>
       <c r="E15" s="4">
@@ -811,10 +808,10 @@
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C16" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D16" s="5">
         <v>45378</v>
       </c>
       <c r="E16" s="4">
@@ -832,10 +829,10 @@
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="C17" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D17" s="5">
         <v>45378</v>
       </c>
       <c r="E17" s="4">
@@ -851,12 +848,12 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D18" s="9">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D18" s="5">
         <v>45378</v>
       </c>
       <c r="E18" s="4">
@@ -872,12 +869,12 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D19" s="9">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D19" s="5">
         <v>45378</v>
       </c>
       <c r="E19" s="4">
@@ -895,10 +892,10 @@
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C20" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D20" s="5">
         <v>45378</v>
       </c>
       <c r="E20" s="4">
@@ -916,10 +913,10 @@
       <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="C21" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D21" s="5">
         <v>45378</v>
       </c>
       <c r="E21" s="4">
@@ -935,33 +932,33 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D22" s="5">
+        <v>45378</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D22" s="9">
-        <v>45378</v>
-      </c>
-      <c r="E22" s="4">
-        <v>8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>8</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D23" s="5">
         <v>45378</v>
       </c>
       <c r="E23" s="4">
@@ -970,15 +967,15 @@
       <c r="F23" s="4">
         <v>8</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="9">
-        <v>45378</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5">
+        <v>45378</v>
+      </c>
+      <c r="D24" s="5">
         <v>45378</v>
       </c>
       <c r="E24" s="4">
@@ -987,7 +984,7 @@
       <c r="F24" s="4">
         <v>8</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
